--- a/activities/ego_networks/ego_edges.xlsx
+++ b/activities/ego_networks/ego_edges.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="14">
   <si>
     <t xml:space="preserve">from</t>
   </si>
@@ -31,15 +31,12 @@
     <t xml:space="preserve">weight</t>
   </si>
   <si>
+    <t xml:space="preserve">Rebecca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kedra</t>
   </si>
   <si>
-    <t xml:space="preserve">Rebecca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curtis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Christina</t>
   </si>
   <si>
@@ -53,6 +50,18 @@
   </si>
   <si>
     <t xml:space="preserve">Tyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seungyoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William</t>
   </si>
 </sst>
 </file>
@@ -67,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,105 +162,108 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.5</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
+      <c r="A5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
+      <c r="A7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -258,73 +271,79 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C11" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,78 +351,87 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
+      <c r="C24" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,151 +441,178 @@
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>6</v>
+      <c r="A29" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C29" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>7</v>
+      <c r="A30" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
+      <c r="C30" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>8</v>
+      <c r="A31" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
+      <c r="C31" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>5</v>
+      <c r="A36" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C36" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>6</v>
+      <c r="A37" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>1</v>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
@@ -567,139 +622,167 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>3</v>
+      <c r="A42" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
